--- a/src/bxgis/配置/地块_属性表.xlsx
+++ b/src/bxgis/配置/地块_属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beixiao\Project\appBXGis\src\bxgis\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6033B73D-0233-4F14-ACCA-9712CF8B7206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FD9268-9F64-4EA8-B2F7-81B0D7E22D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="0" windowWidth="27315" windowHeight="13980" tabRatio="621" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -827,10 +827,10 @@
   <dimension ref="A1:BE137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25:G137"/>
+      <selection pane="bottomRight" activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -840,8 +840,9 @@
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="20.875" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="14" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="14" width="24.5" customWidth="1"/>
     <col min="15" max="15" width="45.125" customWidth="1"/>
     <col min="16" max="26" width="24.5" customWidth="1"/>
     <col min="27" max="28" width="22.5" customWidth="1"/>
